--- a/BELKA.xlsx
+++ b/BELKA.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niras-my.sharepoint.com/personal/arza_niras_com/Documents/Documents/_HARD_DRIVE_COPY/AZAR/TABELE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARZA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{5105A655-D006-4AE5-955D-30D4055F083A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F06387-95CF-4D7D-8B6D-4BC74F1812E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAE6954-9946-43F7-925C-80EDD0CD306C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{792C7306-2CE1-419C-A7DF-683E4018F948}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DANE" sheetId="1" r:id="rId1"/>
+    <sheet name="WYKRESY" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="bmkCustomer" localSheetId="1">WYKRESY!#REF!</definedName>
+    <definedName name="bmkProjektnr1" localSheetId="1">WYKRESY!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Tnąca w środku przęsła:</t>
   </si>
@@ -76,12 +81,21 @@
   <si>
     <t>Obc. siłą skupioną:</t>
   </si>
+  <si>
+    <t>L(x)</t>
+  </si>
+  <si>
+    <t>M(x) [kNm]</t>
+  </si>
+  <si>
+    <t>V(x) [kN]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +104,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,14 +135,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2C114834-A8F3-43D6-B26B-7AA7D43812B7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,6 +161,3912 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WYKRESY!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M(x) [kNm]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WYKRESY!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WYKRESY!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFAC-492E-94DB-3264BF8146A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1582685840"/>
+        <c:axId val="1593987600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1582685840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593987600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1593987600"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582685840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WYKRESY!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V(x) [kN]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WYKRESY!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WYKRESY!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7C1-4BA7-9D44-82729438EF71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1582685840"/>
+        <c:axId val="1593987600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1582685840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593987600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1593987600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582685840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WYKRESY!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M(x) [kNm]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WYKRESY!$A$41:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WYKRESY!$B$41:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C8A-4D81-BC43-A237B6C62869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1582685840"/>
+        <c:axId val="1593987600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1582685840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593987600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1593987600"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582685840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>WYKRESY!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V(x) [kN]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WYKRESY!$A$41:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WYKRESY!$C$41:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FFF-4CE9-9DC0-7AA19974DACD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1582685840"/>
+        <c:axId val="1593987600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1582685840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593987600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1593987600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582685840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D69708-42F9-C1C2-6903-245B55217C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44B4C57-3A3C-463A-9242-6FCF3B230856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B65AC1E-064D-4B9C-ABD5-B70DBDB3FEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2481CD71-ECC9-482A-A81F-27840E6184C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,4 +4504,232 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21691298-6E7F-4DF6-834F-4F0CD2551AAD}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="400" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f>DANE!$B$9*WYKRESY!A3-(DANE!$B$3*WYKRESY!A3*(WYKRESY!A3/2))</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f>DANE!$B$9-DANE!$B$3*WYKRESY!A3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>DANE!$B$2/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="B4" s="1">
+        <f>DANE!$B$9*WYKRESY!A4-(DANE!$B$3*WYKRESY!A4*(WYKRESY!A4/2))</f>
+        <v>0.9375</v>
+      </c>
+      <c r="C4" s="1">
+        <f>DANE!$B$9-DANE!$B$3*WYKRESY!A4</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f>DANE!$B$2/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="1">
+        <f>DANE!$B$9*WYKRESY!A5-(DANE!$B$3*WYKRESY!A5*(WYKRESY!A5/2))</f>
+        <v>1.25</v>
+      </c>
+      <c r="C5" s="1">
+        <f>DANE!$B$9-DANE!$B$3*WYKRESY!A5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f>A5+A4</f>
+        <v>0.75</v>
+      </c>
+      <c r="B6" s="1">
+        <f>DANE!$B$9*WYKRESY!A6-(DANE!$B$3*WYKRESY!A6*(WYKRESY!A6/2))</f>
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="1">
+        <f>DANE!$B$9-DANE!$B$3*WYKRESY!A6</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f>DANE!$B$2/1</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f>DANE!$B$9*WYKRESY!A7-(DANE!$B$3*WYKRESY!A7*(WYKRESY!A7/2))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f>DANE!$B$9-DANE!$B$3*WYKRESY!A7</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
+        <f>DANE!$B$20*WYKRESY!A41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <f>DANE!$B$20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f>DANE!$B$13/4</f>
+        <v>0.85</v>
+      </c>
+      <c r="B42" s="1">
+        <f>DANE!$B$20*WYKRESY!A42</f>
+        <v>4.25</v>
+      </c>
+      <c r="C42" s="1">
+        <f>DANE!$B$20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f>DANE!$B$13/2</f>
+        <v>1.7</v>
+      </c>
+      <c r="B43" s="1">
+        <f>DANE!$B$20*WYKRESY!A43</f>
+        <v>8.5</v>
+      </c>
+      <c r="C43" s="1">
+        <f>DANE!$B$20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f>DANE!$B$13/2</f>
+        <v>1.7</v>
+      </c>
+      <c r="B44" s="1">
+        <f>DANE!$B$20*WYKRESY!A44</f>
+        <v>8.5</v>
+      </c>
+      <c r="C44" s="1">
+        <f>-DANE!$B$20</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f>A43+A42</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B45" s="1">
+        <f>B42</f>
+        <v>4.25</v>
+      </c>
+      <c r="C45" s="1">
+        <f>-DANE!$B$20</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f>DANE!$B$13/1</f>
+        <v>3.4</v>
+      </c>
+      <c r="B46" s="1">
+        <f>B41</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f>-DANE!$B$20</f>
+        <v>-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A39:C39"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.82677165354330717" bottom="0.47244094488188981" header="7.874015748031496E-2" footer="7.874015748031496E-2"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;R&amp;18&amp;G </oddHeader>
+    <oddFooter>&amp;C&amp;"Verdana,Regular"&amp;8&amp;P / &amp;K000000&amp;N&amp;LYNAS6NA67CVJ-2065489706-1317</oddFooter>
+    <firstHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;18 </firstHeader>
+    <firstFooter xml:space="preserve">&amp;L&amp;"Verdana,Regular"&amp;8NIRAS A/S
+Sortemosevej 19
+3450 Allerød, Denmark&amp;C&amp;8Reg. No. 37295728 Denmark
+FRI, FIDIC
+www.niras.com&amp;R&amp;"Verdana,Regular"&amp;8T: +45 4810 4200   
+F: +45 4810 4300 
+E: niras@niras.dk  </firstFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
+</worksheet>
 </file>